--- a/src/test/java/resources/testdata/ExelenterEmployeeList.xlsx
+++ b/src/test/java/resources/testdata/ExelenterEmployeeList.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Demir\Desktop\TestNGProject\TestNGFramework1\src\test\java\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69803829-7958-45FE-AF5B-DE663D806410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C632357B-3986-4579-AB0A-E09513BC3E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="0" windowWidth="15375" windowHeight="11520" activeTab="2" xr2:uid="{F6C1C8E1-52C4-4F3D-BFC5-3EECAD21D69D}"/>
+    <workbookView xWindow="4680" yWindow="0" windowWidth="15375" windowHeight="11520" xr2:uid="{F6C1C8E1-52C4-4F3D-BFC5-3EECAD21D69D}"/>
   </bookViews>
   <sheets>
     <sheet name="Employee" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet" sheetId="2" r:id="rId2"/>
-    <sheet name="LoginNegativeTests" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet" sheetId="2" r:id="rId3"/>
+    <sheet name="NegativeLoginTests" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>William</t>
   </si>
@@ -68,15 +70,6 @@
     <t xml:space="preserve"> LastName</t>
   </si>
   <si>
-    <t>willaadams50</t>
-  </si>
-  <si>
-    <t>elizabethlee50</t>
-  </si>
-  <si>
-    <t>tylernguyen50</t>
-  </si>
-  <si>
     <t>username</t>
   </si>
   <si>
@@ -114,24 +107,28 @@
   </si>
   <si>
     <t>Adminn</t>
+  </si>
+  <si>
+    <t>admi12</t>
+  </si>
+  <si>
+    <t>willaadamss320</t>
+  </si>
+  <si>
+    <t>elizabethleee320</t>
+  </si>
+  <si>
+    <t>tylernguyenn320</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -168,18 +165,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -494,33 +487,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173CC9CE-BE54-4A7D-8B5E-2A710E116FAF}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
     <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" customWidth="1"/>
-    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -532,9 +521,9 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -546,9 +535,9 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -560,25 +549,34 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" xr:uid="{8A702DD0-BF52-40F6-ABDB-462C865D01F0}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{543A9E2B-DC96-45B8-9F2F-371B9A417409}"/>
-    <hyperlink ref="D2" r:id="rId3" xr:uid="{7AC49B13-F995-4CD5-8D3D-9DD0020AF305}"/>
-  </hyperlinks>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId4"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27844F7A-3893-49CF-9578-3FF03777CF66}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03E1F887-3A72-451D-9AAD-2668EFF8E72D}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -594,84 +592,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>18</v>
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -680,100 +678,268 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AF2557A-D773-4870-B322-E9D052A57309}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:K1048576"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03000AFD-14D9-4E22-B985-F83C9EF01479}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D4" sqref="D1:L1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>18</v>
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
